--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H2">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I2">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J2">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N2">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O2">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P2">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q2">
-        <v>41.722772773101</v>
+        <v>11.036188089282</v>
       </c>
       <c r="R2">
-        <v>166.891091092404</v>
+        <v>44.14475235712801</v>
       </c>
       <c r="S2">
-        <v>0.2280746688209489</v>
+        <v>0.4322412890506489</v>
       </c>
       <c r="T2">
-        <v>0.1643674208510563</v>
+        <v>0.3731208108856864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.620737999999999</v>
+        <v>10.430598</v>
       </c>
       <c r="H3">
-        <v>17.241476</v>
+        <v>20.861196</v>
       </c>
       <c r="I3">
-        <v>0.3739306639504602</v>
+        <v>0.5361372314060847</v>
       </c>
       <c r="J3">
-        <v>0.2958469204929191</v>
+        <v>0.4628062232731417</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N3">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O3">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P3">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q3">
-        <v>13.297264225812</v>
+        <v>2.652720113958</v>
       </c>
       <c r="R3">
-        <v>53.189056903248</v>
+        <v>10.610880455832</v>
       </c>
       <c r="S3">
-        <v>0.07268858067079312</v>
+        <v>0.1038959423554358</v>
       </c>
       <c r="T3">
-        <v>0.05238475009937101</v>
+        <v>0.08968541238745537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.620737999999999</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H4">
-        <v>17.241476</v>
+        <v>15.23399</v>
       </c>
       <c r="I4">
-        <v>0.3739306639504602</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J4">
-        <v>0.2958469204929191</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N4">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O4">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P4">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q4">
-        <v>13.29815503540533</v>
+        <v>5.372820075136667</v>
       </c>
       <c r="R4">
-        <v>79.78893021243199</v>
+        <v>32.23692045082</v>
       </c>
       <c r="S4">
-        <v>0.07269345022018972</v>
+        <v>0.2104308712688284</v>
       </c>
       <c r="T4">
-        <v>0.07858238918350079</v>
+        <v>0.2724732897301017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.620737999999999</v>
+        <v>5.077996666666666</v>
       </c>
       <c r="H5">
-        <v>17.241476</v>
+        <v>15.23399</v>
       </c>
       <c r="I5">
-        <v>0.3739306639504602</v>
+        <v>0.2610112166105907</v>
       </c>
       <c r="J5">
-        <v>0.2958469204929191</v>
+        <v>0.3379664990099709</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N5">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O5">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P5">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q5">
-        <v>0.08670450922466667</v>
+        <v>1.291441190263333</v>
       </c>
       <c r="R5">
-        <v>0.520227055348</v>
+        <v>7.74864714158</v>
       </c>
       <c r="S5">
-        <v>0.0004739642385284594</v>
+        <v>0.05058034534176232</v>
       </c>
       <c r="T5">
-        <v>0.0005123603589909202</v>
+        <v>0.06549320927986925</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,22 +785,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>5.077996666666666</v>
+        <v>0.143788</v>
       </c>
       <c r="H6">
-        <v>15.23399</v>
+        <v>0.431364</v>
       </c>
       <c r="I6">
-        <v>0.2202617299243858</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J6">
-        <v>0.2614004177090131</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N6">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O6">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P6">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q6">
-        <v>24.576561898285</v>
+        <v>0.152136187492</v>
       </c>
       <c r="R6">
-        <v>147.45937138971</v>
+        <v>0.912817124952</v>
       </c>
       <c r="S6">
-        <v>0.1343460859179205</v>
+        <v>0.005958537609254494</v>
       </c>
       <c r="T6">
-        <v>0.1452295409958395</v>
+        <v>0.007715323966415598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,22 +847,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>5.077996666666666</v>
+        <v>0.143788</v>
       </c>
       <c r="H7">
-        <v>15.23399</v>
+        <v>0.431364</v>
       </c>
       <c r="I7">
-        <v>0.2202617299243858</v>
+        <v>0.007390765153581618</v>
       </c>
       <c r="J7">
-        <v>0.2614004177090131</v>
+        <v>0.009569822540183962</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N7">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O7">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P7">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q7">
-        <v>7.832677830420001</v>
+        <v>0.036568307948</v>
       </c>
       <c r="R7">
-        <v>46.99606698252</v>
+        <v>0.219409847688</v>
       </c>
       <c r="S7">
-        <v>0.04281679484413266</v>
+        <v>0.001432227544327124</v>
       </c>
       <c r="T7">
-        <v>0.04628540846307572</v>
+        <v>0.001854498573768364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.077996666666666</v>
+        <v>2.8592275</v>
       </c>
       <c r="H8">
-        <v>15.23399</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I8">
-        <v>0.2202617299243858</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J8">
-        <v>0.2614004177090131</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N8">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O8">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P8">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q8">
-        <v>7.833202556742221</v>
+        <v>3.025231389422501</v>
       </c>
       <c r="R8">
-        <v>70.49882301068</v>
+        <v>12.10092555769</v>
       </c>
       <c r="S8">
-        <v>0.04281966322449687</v>
+        <v>0.1184856496520204</v>
       </c>
       <c r="T8">
-        <v>0.06943276381891893</v>
+        <v>0.1022795896559962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.077996666666666</v>
+        <v>2.8592275</v>
       </c>
       <c r="H9">
-        <v>15.23399</v>
+        <v>5.718455000000001</v>
       </c>
       <c r="I9">
-        <v>0.2202617299243858</v>
+        <v>0.1469655254483148</v>
       </c>
       <c r="J9">
-        <v>0.2614004177090131</v>
+        <v>0.1268640859089486</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N9">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O9">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P9">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q9">
-        <v>0.05107279780777779</v>
+        <v>0.7271615970275002</v>
       </c>
       <c r="R9">
-        <v>0.45965518027</v>
+        <v>2.908646388110001</v>
       </c>
       <c r="S9">
-        <v>0.0002791859378358003</v>
+        <v>0.02847987579629441</v>
       </c>
       <c r="T9">
-        <v>0.0004527044311788671</v>
+        <v>0.02458449625295243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.264576</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H10">
-        <v>0.793728</v>
+        <v>2.393869</v>
       </c>
       <c r="I10">
-        <v>0.01147617284568409</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J10">
-        <v>0.01361959872281258</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.8398145</v>
+        <v>1.058059</v>
       </c>
       <c r="N10">
-        <v>9.679629</v>
+        <v>2.116118</v>
       </c>
       <c r="O10">
-        <v>0.6099383944911378</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P10">
-        <v>0.5555826661207054</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q10">
-        <v>1.280498761152</v>
+        <v>0.8442848800903332</v>
       </c>
       <c r="R10">
-        <v>7.682992566912</v>
+        <v>5.065709280541999</v>
       </c>
       <c r="S10">
-        <v>0.006999758440399345</v>
+        <v>0.03306710450600524</v>
       </c>
       <c r="T10">
-        <v>0.007566812969914365</v>
+        <v>0.04281644937491154</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,22 +1095,22 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.264576</v>
+        <v>0.7979563333333332</v>
       </c>
       <c r="H11">
-        <v>0.793728</v>
+        <v>2.393869</v>
       </c>
       <c r="I11">
-        <v>0.01147617284568409</v>
+        <v>0.04101529934681446</v>
       </c>
       <c r="J11">
-        <v>0.01361959872281258</v>
+        <v>0.05310805147033049</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.542474</v>
+        <v>0.254321</v>
       </c>
       <c r="N11">
-        <v>3.084948</v>
+        <v>0.508642</v>
       </c>
       <c r="O11">
-        <v>0.1943905319314043</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P11">
-        <v>0.1770670791911279</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q11">
-        <v>0.408101601024</v>
+        <v>0.2029370526496666</v>
       </c>
       <c r="R11">
-        <v>2.448609606144</v>
+        <v>1.217622315898</v>
       </c>
       <c r="S11">
-        <v>0.002230859344009267</v>
+        <v>0.007948194840809216</v>
       </c>
       <c r="T11">
-        <v>0.002411582565603638</v>
+        <v>0.01029160209541895</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,51 +1163,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.264576</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H12">
-        <v>0.793728</v>
+        <v>0.43657</v>
       </c>
       <c r="I12">
-        <v>0.01147617284568409</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J12">
-        <v>0.01361959872281258</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.542577333333333</v>
+        <v>1.058059</v>
       </c>
       <c r="N12">
-        <v>4.627732</v>
+        <v>2.116118</v>
       </c>
       <c r="O12">
-        <v>0.194403554531223</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="P12">
-        <v>0.2656184118887309</v>
+        <v>0.806213901461467</v>
       </c>
       <c r="Q12">
-        <v>0.408128940544</v>
+        <v>0.1539722725433333</v>
       </c>
       <c r="R12">
-        <v>3.673160464896</v>
+        <v>0.9238336352600001</v>
       </c>
       <c r="S12">
-        <v>0.002231008793615688</v>
+        <v>0.006030449374709606</v>
       </c>
       <c r="T12">
-        <v>0.003617616183315264</v>
+        <v>0.007808437848355584</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,790 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.264576</v>
+        <v>0.1455233333333333</v>
       </c>
       <c r="H13">
-        <v>0.793728</v>
+        <v>0.43657</v>
       </c>
       <c r="I13">
-        <v>0.01147617284568409</v>
+        <v>0.007479962034613753</v>
       </c>
       <c r="J13">
-        <v>0.01361959872281258</v>
+        <v>0.009685317797424247</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01005766666666667</v>
+        <v>0.254321</v>
       </c>
       <c r="N13">
-        <v>0.030173</v>
+        <v>0.508642</v>
       </c>
       <c r="O13">
-        <v>0.001267519046234871</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="P13">
-        <v>0.001731842799435809</v>
+        <v>0.193786098538533</v>
       </c>
       <c r="Q13">
-        <v>0.002661017216</v>
+        <v>0.03700963965666667</v>
       </c>
       <c r="R13">
-        <v>0.023949154944</v>
+        <v>0.22205783794</v>
       </c>
       <c r="S13">
-        <v>1.454626765978802E-05</v>
+        <v>0.001449512659904147</v>
       </c>
       <c r="T13">
-        <v>2.35870039793081E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>2.26402</v>
-      </c>
-      <c r="H14">
-        <v>4.52804</v>
-      </c>
-      <c r="I14">
-        <v>0.09820348348333063</v>
-      </c>
-      <c r="J14">
-        <v>0.07769675228900108</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4.8398145</v>
-      </c>
-      <c r="N14">
-        <v>9.679629</v>
-      </c>
-      <c r="O14">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P14">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q14">
-        <v>10.95743682429</v>
-      </c>
-      <c r="R14">
-        <v>43.82974729716</v>
-      </c>
-      <c r="S14">
-        <v>0.05989807504925966</v>
-      </c>
-      <c r="T14">
-        <v>0.04316696878564324</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>2.26402</v>
-      </c>
-      <c r="H15">
-        <v>4.52804</v>
-      </c>
-      <c r="I15">
-        <v>0.09820348348333063</v>
-      </c>
-      <c r="J15">
-        <v>0.07769675228900108</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.542474</v>
-      </c>
-      <c r="N15">
-        <v>3.084948</v>
-      </c>
-      <c r="O15">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P15">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q15">
-        <v>3.49219198548</v>
-      </c>
-      <c r="R15">
-        <v>13.96876794192</v>
-      </c>
-      <c r="S15">
-        <v>0.01908982739184151</v>
-      </c>
-      <c r="T15">
-        <v>0.01375753699045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.26402</v>
-      </c>
-      <c r="H16">
-        <v>4.52804</v>
-      </c>
-      <c r="I16">
-        <v>0.09820348348333063</v>
-      </c>
-      <c r="J16">
-        <v>0.07769675228900108</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N16">
-        <v>4.627732</v>
-      </c>
-      <c r="O16">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P16">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q16">
-        <v>3.492425934213333</v>
-      </c>
-      <c r="R16">
-        <v>20.95455560528</v>
-      </c>
-      <c r="S16">
-        <v>0.01909110625650773</v>
-      </c>
-      <c r="T16">
-        <v>0.02063768795191658</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>2.26402</v>
-      </c>
-      <c r="H17">
-        <v>4.52804</v>
-      </c>
-      <c r="I17">
-        <v>0.09820348348333063</v>
-      </c>
-      <c r="J17">
-        <v>0.07769675228900108</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.030173</v>
-      </c>
-      <c r="O17">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P17">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q17">
-        <v>0.02277075848666667</v>
-      </c>
-      <c r="R17">
-        <v>0.13662455092</v>
-      </c>
-      <c r="S17">
-        <v>0.0001244747857217332</v>
-      </c>
-      <c r="T17">
-        <v>0.0001345585609912543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H18">
-        <v>19.241697</v>
-      </c>
-      <c r="I18">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J18">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>4.8398145</v>
-      </c>
-      <c r="N18">
-        <v>9.679629</v>
-      </c>
-      <c r="O18">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P18">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q18">
-        <v>31.0420813817355</v>
-      </c>
-      <c r="R18">
-        <v>186.252488290413</v>
-      </c>
-      <c r="S18">
-        <v>0.1696894036538421</v>
-      </c>
-      <c r="T18">
-        <v>0.1834360415945542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H19">
-        <v>19.241697</v>
-      </c>
-      <c r="I19">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J19">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.542474</v>
-      </c>
-      <c r="N19">
-        <v>3.084948</v>
-      </c>
-      <c r="O19">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P19">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q19">
-        <v>9.893272446126002</v>
-      </c>
-      <c r="R19">
-        <v>59.35963467675601</v>
-      </c>
-      <c r="S19">
-        <v>0.05408089363994352</v>
-      </c>
-      <c r="T19">
-        <v>0.05846201849730366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H20">
-        <v>19.241697</v>
-      </c>
-      <c r="I20">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J20">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N20">
-        <v>4.627732</v>
-      </c>
-      <c r="O20">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P20">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q20">
-        <v>9.893935215689334</v>
-      </c>
-      <c r="R20">
-        <v>89.04541694120401</v>
-      </c>
-      <c r="S20">
-        <v>0.05408451662419444</v>
-      </c>
-      <c r="T20">
-        <v>0.08769890247244493</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>6.413899000000001</v>
-      </c>
-      <c r="H21">
-        <v>19.241697</v>
-      </c>
-      <c r="I21">
-        <v>0.2782074471560547</v>
-      </c>
-      <c r="J21">
-        <v>0.3301687629590321</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.030173</v>
-      </c>
-      <c r="O21">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P21">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q21">
-        <v>0.06450885817566668</v>
-      </c>
-      <c r="R21">
-        <v>0.5805797235810001</v>
-      </c>
-      <c r="S21">
-        <v>0.0003526332380746808</v>
-      </c>
-      <c r="T21">
-        <v>0.0005718003947292283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.413146</v>
-      </c>
-      <c r="H22">
-        <v>1.239438</v>
-      </c>
-      <c r="I22">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J22">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>4.8398145</v>
-      </c>
-      <c r="N22">
-        <v>9.679629</v>
-      </c>
-      <c r="O22">
-        <v>0.6099383944911378</v>
-      </c>
-      <c r="P22">
-        <v>0.5555826661207054</v>
-      </c>
-      <c r="Q22">
-        <v>1.999550001417</v>
-      </c>
-      <c r="R22">
-        <v>11.997300008502</v>
-      </c>
-      <c r="S22">
-        <v>0.01093040260876734</v>
-      </c>
-      <c r="T22">
-        <v>0.01181588092369769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.413146</v>
-      </c>
-      <c r="H23">
-        <v>1.239438</v>
-      </c>
-      <c r="I23">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J23">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.542474</v>
-      </c>
-      <c r="N23">
-        <v>3.084948</v>
-      </c>
-      <c r="O23">
-        <v>0.1943905319314043</v>
-      </c>
-      <c r="P23">
-        <v>0.1770670791911279</v>
-      </c>
-      <c r="Q23">
-        <v>0.6372669632040001</v>
-      </c>
-      <c r="R23">
-        <v>3.823601779224</v>
-      </c>
-      <c r="S23">
-        <v>0.003483576040684161</v>
-      </c>
-      <c r="T23">
-        <v>0.003765782575323842</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.413146</v>
-      </c>
-      <c r="H24">
-        <v>1.239438</v>
-      </c>
-      <c r="I24">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J24">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.542577333333333</v>
-      </c>
-      <c r="N24">
-        <v>4.627732</v>
-      </c>
-      <c r="O24">
-        <v>0.194403554531223</v>
-      </c>
-      <c r="P24">
-        <v>0.2656184118887309</v>
-      </c>
-      <c r="Q24">
-        <v>0.6373096549573333</v>
-      </c>
-      <c r="R24">
-        <v>5.735786894616</v>
-      </c>
-      <c r="S24">
-        <v>0.003483809412218594</v>
-      </c>
-      <c r="T24">
-        <v>0.005649052278634373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.413146</v>
-      </c>
-      <c r="H25">
-        <v>1.239438</v>
-      </c>
-      <c r="I25">
-        <v>0.0179205026400845</v>
-      </c>
-      <c r="J25">
-        <v>0.02126754782722214</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.01005766666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.030173</v>
-      </c>
-      <c r="O25">
-        <v>0.001267519046234871</v>
-      </c>
-      <c r="P25">
-        <v>0.001731842799435809</v>
-      </c>
-      <c r="Q25">
-        <v>0.004155284752666667</v>
-      </c>
-      <c r="R25">
-        <v>0.03739756277400001</v>
-      </c>
-      <c r="S25">
-        <v>2.27145784144094E-05</v>
-      </c>
-      <c r="T25">
-        <v>3.683204956623136E-05</v>
+        <v>0.001876879949068663</v>
       </c>
     </row>
   </sheetData>
